--- a/国民经济行业分类查询表.xlsx
+++ b/国民经济行业分类查询表.xlsx
@@ -5,39 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\doc_tools\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\doc_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A8CAB2-ABE4-4D72-A751-DFBE05603981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD795CC-EC99-437D-B6FC-8C5A4D4AFA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8328" yWindow="2280" windowWidth="15888" windowHeight="11856" xr2:uid="{7E417261-6D00-4461-9AB6-D7479FE89425}"/>
+    <workbookView xWindow="13572" yWindow="1872" windowWidth="21924" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询表" sheetId="2" r:id="rId1"/>
-    <sheet name="GBT4574" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="GBT4574" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GBT4574'!$A$2:$F$1773</definedName>
+    <definedName name="FS">OFFSET([1]Sheet1!$S$1,MATCH([1]SheetJS!$S1,[1]Sheet1!$R$1:$R$65536,0)-1,,COUNTIF([1]Sheet1!$R$1:$R$65536,[1]SheetJS!$S1))</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="2857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="2860">
   <si>
     <t>门类</t>
   </si>
@@ -8614,13 +8610,25 @@
   </si>
   <si>
     <t>指联合国和其他国际组织驻我国境内机构等活动</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 通信设备零售</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>建材批发</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属切削机床制造</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8703,8 +8711,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="华文宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="华文宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8714,6 +8750,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8747,7 +8789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8801,6 +8843,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8816,6 +8873,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SheetJS"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet1 (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9114,11 +9194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFA3EBF-D0AF-4302-BBFC-E52FEAFEF50A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1774"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1746" workbookViewId="0">
-      <selection activeCell="A1773" sqref="A17:A1773"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9144,194 +9224,270 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>204</v>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A5" s="20" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>2013</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A31" s="22" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>1210</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="22" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="22" t="s">
+        <v>1754</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="22" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="22" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A38" s="22" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="20" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="20" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="20" t="s">
+        <v>1647</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A47" s="23" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
@@ -14495,17 +14651,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>FS</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C38AF2-1397-40BA-876D-5AF19EBE3978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1774"/>
   <sheetViews>
-    <sheetView topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="E464" sqref="E464"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
